--- a/C#/Function/Pulgin/概念図.xlsx
+++ b/C#/Function/Pulgin/概念図.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC90DAF4-C2D9-48FD-95D8-0B0111A642F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88023D-B56F-464B-BFBB-D1A6DA712C79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="インターフェイス" sheetId="44" r:id="rId1"/>
+    <sheet name="インターフェイス" sheetId="46" r:id="rId1"/>
+    <sheet name="プラグイン" sheetId="47" r:id="rId2"/>
+    <sheet name="old1" sheetId="44" r:id="rId3"/>
+    <sheet name="old2" sheetId="45" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>継承</t>
     <rPh sb="0" eb="2">
@@ -75,6 +78,122 @@
       <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・IFクラスを継承しているクラスはIFクラス型に</t>
+    <rPh sb="7" eb="9">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスを格納するとIFクラスに定義されている</t>
+    <rPh sb="7" eb="9">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバのみにアクセス可能となる</t>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※メンバは全て公開設定となる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・IFクラスを継承したクラスはIFクラスに定義されている</t>
+    <rPh sb="7" eb="9">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ(シグネチャ)を必ず実装しなければならない</t>
+    <rPh sb="11" eb="12">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開されている全てのメンバにアクセス可能となる</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラスインスタンスを同クラス型に格納するとクラス内の</t>
+    <rPh sb="11" eb="12">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実装クラスと呼び出しクラスで同一のインターフェイスを</t>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用することで動的なクラス呼び出し(プラグイン機能)が</t>
+    <rPh sb="7" eb="9">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能となる</t>
   </si>
 </sst>
 </file>
@@ -214,6 +333,6008 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5730F9-63D8-416A-8FC9-6FB262980FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="11106149"/>
+          <a:ext cx="2714626" cy="7734302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出しクラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA02AF0-D810-42B7-A304-EC39EC0C4460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="857248"/>
+          <a:ext cx="2714626" cy="9772651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出しクラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03653C2E-2604-4683-AA08-ADA4E249C256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="1600201"/>
+          <a:ext cx="2047876" cy="6829424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67E2E6E-D2D1-475D-ABBF-569FFA6AA427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="2057401"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラスメソッドと同名別メソッド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D649A787-E301-437C-BBC8-13630C5F5EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="4181476"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラスメソッドと同名別メソッド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEC47AA-426D-47DA-BB0F-E6ABC816A841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="1114425"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>型インスタンス生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA84D5D-150E-4553-9EF0-9C25D0E38B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="6315076"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>03</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23059434-934C-460A-86A7-F32138B55144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763126" y="1476375"/>
+          <a:ext cx="514350" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30960EC-E5F4-43D5-BED5-49A48BA41D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="11658599"/>
+          <a:ext cx="2714626" cy="7372351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718B3279-99D9-4E4D-8307-EE40E1C90737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="12001500"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD9AFCC-4F7A-4D24-913A-F79DF7DE0DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="12439651"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6881A9-B9AC-4612-B129-7DC2B882D719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="14563726"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690DC486-9F76-4085-B98C-A52C73E63254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2590800" y="13220701"/>
+          <a:ext cx="1676401" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BECCED-D4E2-41A3-B4AE-295905AA19BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="11991975"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2025828C-C5CC-4AAC-B157-B8D9E8C8AFCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="12430126"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477F522A-31B0-4AAD-85B6-87388ABBCAC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="14544676"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E47BDA8-9F37-4AF8-B88A-CDD0B68AFA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="16944976"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>03</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本クラス独自実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D537EA1C-2BE7-4C8D-B794-3D72328E258E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="11963401"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C49D96-AF43-426C-8D9C-F389DBA362CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="12420601"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D876C91E-17E2-4723-BF8E-37D737FE0C33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="14544676"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9866E908-2252-4FFF-AD79-3A18F4A505E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="1609725"/>
+          <a:ext cx="2714626" cy="6696076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1785D6-F122-4665-B681-6EC613C6C2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="6172201"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>03</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73231912-6348-4658-BA73-373797AB6876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="11344274"/>
+          <a:ext cx="1371600" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス型に実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>インスタンス生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E186C368-6556-40FF-8243-354CD88B6033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2847975" y="1371600"/>
+          <a:ext cx="5505450" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>499877</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389F15FC-71FC-45C7-8C8E-496198F9481D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7231764" y="11270549"/>
+          <a:ext cx="0" cy="1871477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16819</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6028903B-497F-42A6-8144-2881F72C6EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2883844" y="11672887"/>
+          <a:ext cx="5460056" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61E809F-6B8A-422F-B2CB-CCE305C126DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="8610601"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>05</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>03</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9E0096-1D2E-440C-B5A7-AB92CA11A7A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="1952626"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラスメソッドと同名別メソッド</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F271552E-F9C4-4C8D-881A-E1A869AD78A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="4076701"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラスメソッドと同名別メソッド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717E2380-148F-4B01-AB3E-FBC99EB9B5F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="11849099"/>
+          <a:ext cx="504825" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B15284B-AEE2-4F06-9035-237F9541EAC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="16783050"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>06</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>03</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479925</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4410FADC-B8DE-43B9-8510-4781313559EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8439150" y="17392649"/>
+          <a:ext cx="1080000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4CDC81-F565-4363-ABBF-6278913A182A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="11106149"/>
+          <a:ext cx="2714626" cy="7734302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出しクラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD2BD17-132D-44E3-B730-98EA95CEDC75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="12001500"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4893887-B34B-4A76-B301-7069DCFF93E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="2152651"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDADA08-7CB2-4CA6-B73E-E38899D3BE7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="14563726"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5DE671-96C4-4368-914B-45312912C5CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="11991975"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89791BDA-894A-4C6E-BB42-49D7951D143E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="12430126"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B193F34D-AEB4-4B01-A7FC-444C54D848FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="14544676"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DB91C5-B3C2-483F-8177-1D1988B0D70D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="16944976"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本クラス独自実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798261C2-3136-4FBB-8B30-19A529881B71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="11963401"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94376C55-B723-4380-A3FC-B0D3FBF53AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="12420601"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19802926-1F6C-4F95-AD55-5AFE7D3E185F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="14544676"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE016949-4418-4E16-ABCC-C6BF70045754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="11344274"/>
+          <a:ext cx="1371600" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス型に実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dll</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>動的インスタンス生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>499877</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81E9479-9AC5-48D7-A4D0-5B2DBA0773AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7231764" y="11270549"/>
+          <a:ext cx="0" cy="1871477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16819</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6CF148-264E-4EDA-BC18-000CE931F5D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2883844" y="11672887"/>
+          <a:ext cx="5460056" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C32FFC-DAA9-4209-A9A9-78C7B9196EF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="11849099"/>
+          <a:ext cx="504825" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD29818-9AF9-439D-B766-385540C5239B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="16783050"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>03</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B22E504-262D-48A1-9CDF-076D631629B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8439150" y="17392649"/>
+          <a:ext cx="1080000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57D7187-2B71-4617-8876-A7A77ADFF2DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="9420226"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D4E056-9C57-4753-8BA4-67BBDF3CFD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="9858377"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914B4DBE-88C0-4909-A74A-8BCD95A41CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="11972927"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A249009-2306-4D15-A2C9-F3B978AAC9D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="14373227"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本クラス独自実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7101C8D-9F7D-422C-9830-B73900E722A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="11658599"/>
+          <a:ext cx="2714626" cy="7372351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01.dll</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B646AF82-342F-4817-8453-3FC5DA3E0E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="9086850"/>
+          <a:ext cx="2714626" cy="7372351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02.dll</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>32132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040E5062-03D2-4CB4-A12F-144C2F52CCD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="2432432"/>
+          <a:ext cx="1371600" cy="697737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実測クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7E8680-8D4A-4EB9-B887-B41BC181F96C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="3137282"/>
+          <a:ext cx="1371600" cy="697737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実測クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>116712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190649EF-43CD-472B-968A-4C9B1B23682E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="4562475"/>
+          <a:ext cx="1371600" cy="697737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実測クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>135762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A70BEB-089B-4270-8BC5-D7FB119F22DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="5267325"/>
+          <a:ext cx="1371600" cy="697737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実測クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEA9FCC-4352-404A-ACFA-20C8A7E54CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2790825" y="1419225"/>
+          <a:ext cx="5524500" cy="7743826"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63483B9E-E15F-429A-AEC3-DDD2D9418B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2590800" y="13220701"/>
+          <a:ext cx="1676401" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F77762E-0A76-4C99-9D82-BF9FC0D16A50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2895600" y="6400800"/>
+          <a:ext cx="2366963" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -305,13 +6426,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -391,13 +6512,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -484,13 +6605,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
@@ -583,7 +6704,7 @@
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
@@ -1041,13 +7162,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1132,13 +7253,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
@@ -1220,13 +7341,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
@@ -1347,13 +7468,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
@@ -1974,7 +8095,7 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2024,13 +8145,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2144,7 +8265,7 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>83457</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
@@ -2194,13 +8315,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>451</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>499877</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
@@ -2250,13 +8371,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
@@ -2338,13 +8459,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
@@ -2465,13 +8586,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
@@ -2587,13 +8708,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2707,7 +8828,7 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>92982</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
@@ -2757,13 +8878,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
@@ -2972,13 +9093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>584700</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -3027,13 +9148,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>584700</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -3078,6 +9199,3142 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>667201</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3700D0F0-DFA0-437D-8E2F-FC92849C0018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7649026" y="6853238"/>
+          <a:ext cx="3047549" cy="2538412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6919460B-EDA2-40C9-A5B5-AF75C4FFBB44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="866774"/>
+          <a:ext cx="2714626" cy="7372351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1FEFBE-142F-4B30-9C3E-FF5982393BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="2209800"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24A2844-6F62-4FD7-A6C3-702F367A5F73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="2647951"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4196AC-0BD5-4A2B-A99B-9AA2001E9900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="4772026"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC04BBF3-42A9-41F8-B82D-B62A877F6957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2590800" y="2409826"/>
+          <a:ext cx="1676401" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C0CA68-D8EF-4028-97AD-A25312A7E3A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="1200150"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7213A765-06A7-4499-940D-CAA446B6C3E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="1638301"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6FC38E-A459-462D-B2A2-6A87B7C8ECB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="3752851"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADFF968-9928-457C-BB22-673A52A1CF48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="6153151"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>03</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本クラス独自実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AB7D8E-F156-4A66-8047-2189835D0123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="857248"/>
+          <a:ext cx="2714626" cy="15687678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出しクラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C96F71-23DE-49DC-AAC9-A4DE1FB463A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="1962151"/>
+          <a:ext cx="2047876" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEA5A12-4364-43EE-B61D-1B894D0F3AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="2419351"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8EA271-E20F-460D-B36C-7B60A30891F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="4543426"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E92167-60DB-4290-B431-C0F91833CE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="8591550"/>
+          <a:ext cx="2714626" cy="6696076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A6B6D6-AB97-46CA-BF5C-44AE4D33F0CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="13154026"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>04</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6AD0AE-6A54-4BDA-AF84-8B4136572A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="1285874"/>
+          <a:ext cx="1371600" cy="714376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス型に実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のインスタンス生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588319</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83457</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45552B5B-CE6E-4D8C-B644-69473E05BBC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5603213" y="-1457307"/>
+          <a:ext cx="0" cy="5667338"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>499877</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B9805B-C0B4-48B4-83A9-128EF23F7247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7231764" y="1355024"/>
+          <a:ext cx="0" cy="1871477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4565B85A-5D85-424B-9A77-D718E90C413E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="9382126"/>
+          <a:ext cx="2047876" cy="6829424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DA7221-46D2-4E43-B5CA-E205F908ADB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="9839326"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラスメソッドと同名別メソッド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9EC816-4727-446A-AA8F-BFFC59AD9C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="11963401"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラスメソッドと同名別メソッド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BD51BE-9BF7-4326-AB45-8468EE5225C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="8696324"/>
+          <a:ext cx="1371600" cy="714376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のインスタンス生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>597844</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92982</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0D768A-DE93-4550-A778-7C6F5535CD2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5612738" y="6096018"/>
+          <a:ext cx="0" cy="5667338"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077FF42D-2664-42AB-B73F-00094A14758E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="6772276"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>05</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>03</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>04</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>498975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C877A213-2FFE-4F6C-B7FD-68DE1F687F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8458200" y="7362825"/>
+          <a:ext cx="1080000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>667201</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9149606D-AB8E-444E-AD27-5FF6EFB967E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6277426" y="6853238"/>
+          <a:ext cx="1675949" cy="2538412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB02B19-6105-4B42-9D0B-611AD93CCC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="8934451"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラスメソッドと同名別メソッド</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399C597-BF43-4A8D-82A1-911D087276BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="11058526"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラスメソッドと同名別メソッド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079D1FDF-5C5E-4287-B776-8F67812D9105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="14097001"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>04</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7079B59-7C10-4DD9-8A4C-4AA4B4483704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="1847849"/>
+          <a:ext cx="561975" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8F01B3-02F3-4C59-AF9E-5DB3B11AF1FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="9258300"/>
+          <a:ext cx="561975" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3403,58 +12660,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEFC806-FC6C-4189-91FF-17131158A8E9}">
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="9" style="4"/>
-    <col min="15" max="15" width="9" style="3"/>
-    <col min="16" max="16" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="12" max="12" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>インターフェイス</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="L68" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="L71" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEFDE69-FD39-4100-AC6A-1E55AFEA5E6E}">
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="12" max="12" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>プラグイン</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="12" max="12" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>old1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="O8" s="3" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="O13" s="3" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="G14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="O52" s="3" t="s">
+    <row r="52" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E47440-45B7-4963-9BEF-411E4E26B4F9}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="12" max="12" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>old2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/C#/Function/Pulgin/概念図.xlsx
+++ b/C#/Function/Pulgin/概念図.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88023D-B56F-464B-BFBB-D1A6DA712C79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6536356-F03C-4E91-AA2F-DD0E056691F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インターフェイス" sheetId="46" r:id="rId1"/>
     <sheet name="プラグイン" sheetId="47" r:id="rId2"/>
-    <sheet name="old1" sheetId="44" r:id="rId3"/>
-    <sheet name="old2" sheetId="45" r:id="rId4"/>
+    <sheet name="差分ビルド注意" sheetId="48" r:id="rId3"/>
+    <sheet name="old1" sheetId="44" r:id="rId4"/>
+    <sheet name="old2" sheetId="45" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>継承</t>
     <rPh sb="0" eb="2">
@@ -195,6 +196,173 @@
   <si>
     <t>可能となる</t>
   </si>
+  <si>
+    <t>\BaseApp\</t>
+  </si>
+  <si>
+    <t>\Device\</t>
+  </si>
+  <si>
+    <t>\Device\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧バージョン内容</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込み(継承)</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・インターフェイスに変更がある変更セットを含むビルドの</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルドされた内容</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分はIFファイルのビルド順に注意が必要</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ファイル(BaseApp下のもの?)が先にビルドされる</t>
+    <rPh sb="13" eb="14">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①最新のIDevicePlugin.dllがビルドされるが複数あるファイルの内、</t>
+    <rPh sb="1" eb="3">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②CATASimulator.dllビルドのために事前にビルドしていた</t>
+    <rPh sb="25" eb="27">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③CATASimulator.dllがビルドされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※CheckHealthInit()メソッド等の新規追加されたメンバは</t>
+    <rPh sb="22" eb="23">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス独自実装としてビルドされるためこの時点でコンパイルエラーにはならない</t>
+    <rPh sb="3" eb="5">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧IFファイル(Device下の?IDevicePlugin.dll)を読み込む</t>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④Device下の?IDevicePlugin.dllがビルドされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤呼び出しクラス.dllビルドのためにIDevicePlugin.dllが読み込まれる</t>
+    <rPh sb="1" eb="2">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥呼び出しクラス.dllがビルドされる</t>
+    <rPh sb="1" eb="2">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,6 +451,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -294,12 +482,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="テスト風" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -349,7 +544,7 @@
         <xdr:cNvPr id="42" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5730F9-63D8-416A-8FC9-6FB262980FF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -440,7 +635,7 @@
         <xdr:cNvPr id="11" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA02AF0-D810-42B7-A304-EC39EC0C4460}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -531,7 +726,7 @@
         <xdr:cNvPr id="20" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03653C2E-2604-4683-AA08-ADA4E249C256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -626,7 +821,7 @@
         <xdr:cNvPr id="21" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67E2E6E-D2D1-475D-ABBF-569FFA6AA427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -732,7 +927,7 @@
         <xdr:cNvPr id="22" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D649A787-E301-437C-BBC8-13630C5F5EF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,7 +1033,7 @@
         <xdr:cNvPr id="23" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEC47AA-426D-47DA-BB0F-E6ABC816A841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +1131,7 @@
         <xdr:cNvPr id="30" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA84D5D-150E-4553-9EF0-9C25D0E38B34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,7 +1223,7 @@
         <xdr:cNvPr id="32" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23059434-934C-460A-86A7-F32138B55144}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1302,7 @@
         <xdr:cNvPr id="2" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30960EC-E5F4-43D5-BED5-49A48BA41D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1198,7 +1393,7 @@
         <xdr:cNvPr id="3" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718B3279-99D9-4E4D-8307-EE40E1C90737}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1479,7 @@
         <xdr:cNvPr id="4" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD9AFCC-4F7A-4D24-913A-F79DF7DE0DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1572,7 @@
         <xdr:cNvPr id="5" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6881A9-B9AC-4612-B129-7DC2B882D719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1665,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690DC486-9F76-4085-B98C-A52C73E63254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1721,7 @@
         <xdr:cNvPr id="7" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BECCED-D4E2-41A3-B4AE-295905AA19BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1809,7 @@
         <xdr:cNvPr id="8" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2025828C-C5CC-4AAC-B157-B8D9E8C8AFCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1915,7 @@
         <xdr:cNvPr id="9" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477F522A-31B0-4AAD-85B6-87388ABBCAC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +2021,7 @@
         <xdr:cNvPr id="10" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E47BDA8-9F37-4AF8-B88A-CDD0B68AFA18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +2127,7 @@
         <xdr:cNvPr id="12" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D537EA1C-2BE7-4C8D-B794-3D72328E258E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2215,7 @@
         <xdr:cNvPr id="13" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C49D96-AF43-426C-8D9C-F389DBA362CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2342,7 @@
         <xdr:cNvPr id="14" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D876C91E-17E2-4723-BF8E-37D737FE0C33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2464,7 @@
         <xdr:cNvPr id="15" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9866E908-2252-4FFF-AD79-3A18F4A505E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2555,7 @@
         <xdr:cNvPr id="16" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1785D6-F122-4665-B681-6EC613C6C2EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2642,7 @@
         <xdr:cNvPr id="17" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73231912-6348-4658-BA73-373797AB6876}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2756,7 @@
         <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E186C368-6556-40FF-8243-354CD88B6033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2814,7 @@
         <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389F15FC-71FC-45C7-8C8E-496198F9481D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2870,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6028903B-497F-42A6-8144-2881F72C6EEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2926,7 @@
         <xdr:cNvPr id="25" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61E809F-6B8A-422F-B2CB-CCE305C126DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,7 +3157,7 @@
         <xdr:cNvPr id="28" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9E0096-1D2E-440C-B5A7-AB92CA11A7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3268,7 @@
         <xdr:cNvPr id="29" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F271552E-F9C4-4C8D-881A-E1A869AD78A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3179,7 +3374,7 @@
         <xdr:cNvPr id="31" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717E2380-148F-4B01-AB3E-FBC99EB9B5F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3258,7 +3453,7 @@
         <xdr:cNvPr id="43" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B15284B-AEE2-4F06-9035-237F9541EAC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,7 +3679,7 @@
         <xdr:cNvPr id="44" name="直線コネクタ 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4410FADC-B8DE-43B9-8510-4781313559EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3544,7 +3739,7 @@
         <xdr:cNvPr id="2" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4CDC81-F565-4363-ABBF-6278913A182A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3830,7 @@
         <xdr:cNvPr id="11" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD2BD17-132D-44E3-B730-98EA95CEDC75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3721,7 +3916,7 @@
         <xdr:cNvPr id="12" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4893887-B34B-4A76-B301-7069DCFF93E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3814,7 +4009,7 @@
         <xdr:cNvPr id="13" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDADA08-7CB2-4CA6-B73E-E38899D3BE7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,7 +4102,7 @@
         <xdr:cNvPr id="15" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5DE671-96C4-4368-914B-45312912C5CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +4189,7 @@
         <xdr:cNvPr id="16" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89791BDA-894A-4C6E-BB42-49D7951D143E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4100,7 +4295,7 @@
         <xdr:cNvPr id="17" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B193F34D-AEB4-4B01-A7FC-444C54D848FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4206,7 +4401,7 @@
         <xdr:cNvPr id="18" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DB91C5-B3C2-483F-8177-1D1988B0D70D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4312,7 +4507,7 @@
         <xdr:cNvPr id="19" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798261C2-3136-4FBB-8B30-19A529881B71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4400,7 +4595,7 @@
         <xdr:cNvPr id="20" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94376C55-B723-4380-A3FC-B0D3FBF53AA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4496,7 +4691,7 @@
         <xdr:cNvPr id="21" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19802926-1F6C-4F95-AD55-5AFE7D3E185F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,7 +4779,7 @@
         <xdr:cNvPr id="24" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE016949-4418-4E16-ABCC-C6BF70045754}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4698,7 +4893,7 @@
         <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81E9479-9AC5-48D7-A4D0-5B2DBA0773AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4754,7 +4949,7 @@
         <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6CF148-264E-4EDA-BC18-000CE931F5D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4810,7 +5005,7 @@
         <xdr:cNvPr id="31" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C32FFC-DAA9-4209-A9A9-78C7B9196EF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4889,7 +5084,7 @@
         <xdr:cNvPr id="32" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD29818-9AF9-439D-B766-385540C5239B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5115,7 +5310,7 @@
         <xdr:cNvPr id="33" name="直線コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B22E504-262D-48A1-9CDF-076D631629B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5170,7 +5365,7 @@
         <xdr:cNvPr id="34" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57D7187-2B71-4617-8876-A7A77ADFF2DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5258,7 +5453,7 @@
         <xdr:cNvPr id="35" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D4E056-9C57-4753-8BA4-67BBDF3CFD1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5364,7 +5559,7 @@
         <xdr:cNvPr id="36" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914B4DBE-88C0-4909-A74A-8BCD95A41CA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5470,7 +5665,7 @@
         <xdr:cNvPr id="37" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A249009-2306-4D15-A2C9-F3B978AAC9D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5576,7 +5771,7 @@
         <xdr:cNvPr id="10" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7101C8D-9F7D-422C-9830-B73900E722A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5668,7 +5863,7 @@
         <xdr:cNvPr id="38" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B646AF82-342F-4817-8453-3FC5DA3E0E6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5760,7 +5955,7 @@
         <xdr:cNvPr id="43" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040E5062-03D2-4CB4-A12F-144C2F52CCD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5864,7 +6059,7 @@
         <xdr:cNvPr id="45" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7E8680-8D4A-4EB9-B887-B41BC181F96C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5968,7 +6163,7 @@
         <xdr:cNvPr id="48" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190649EF-43CD-472B-968A-4C9B1B23682E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6072,7 +6267,7 @@
         <xdr:cNvPr id="49" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A70BEB-089B-4270-8BC5-D7FB119F22DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6176,7 +6371,7 @@
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEA9FCC-4352-404A-ACFA-20C8A7E54CA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6232,7 +6427,7 @@
         <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63483B9E-E15F-429A-AEC3-DDD2D9418B2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6288,7 +6483,7 @@
         <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F77762E-0A76-4C99-9D82-BF9FC0D16A50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6335,6 +6530,4261 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="666749"/>
+          <a:ext cx="2714626" cy="7800975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出しクラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="857249"/>
+          <a:ext cx="2714626" cy="9401176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CATASimulator.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="1200149"/>
+          <a:ext cx="2047876" cy="7000876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ICAT.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="12439651"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool CheckHealth()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>既存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="14563726"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool CheckHealthInit()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2590800" y="13220701"/>
+          <a:ext cx="1676401" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="1190625"/>
+          <a:ext cx="2047876" cy="6715126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="8191501"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本クラス独自実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>674579</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151866</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2855804" y="879633"/>
+          <a:ext cx="4963687" cy="31433"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8439150" y="17392649"/>
+          <a:ext cx="1080000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="7886700"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int GetStatusCode()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029575" y="1200149"/>
+          <a:ext cx="2047876" cy="7000876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ICAT.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>499877</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7231764" y="11270549"/>
+          <a:ext cx="0" cy="1871477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>55634</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3316217" y="9458325"/>
+          <a:ext cx="2454419" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>34529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="12728972"/>
+          <a:ext cx="1371600" cy="1021557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IDevicePlugin.dll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新バージョン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457203</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>130109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457203</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>98494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3425760" y="12201527"/>
+          <a:ext cx="5283335" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="5838825"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool IsInitCheckHealth()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="1638300"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool CheckHealth()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="3762375"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool CheckHealthInit()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="7886699"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int GetStatusCode()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="5838824"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool IsInitCheckHealth()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="1638299"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool CheckHealth()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="3762374"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool CheckHealthInit()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="7886698"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int GetStatusCode()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="5838823"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool IsInitCheckHealth()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="18869026"/>
+          <a:ext cx="2047876" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ICAT.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="18107027"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool CheckHealth()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>既存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>13098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>5955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="14243448"/>
+          <a:ext cx="1371600" cy="1021557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CATASimulator.dll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>旧バージョンの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IDevicePlugin.dll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>155972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>148829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="15072122"/>
+          <a:ext cx="1371600" cy="1021557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出しクラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.dll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新バージョンの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IDevicePlugin.dll</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>96766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>150888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="487290" y="12982577"/>
+          <a:ext cx="2111522" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676277</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>122072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676277</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>87482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5875172" y="12534902"/>
+          <a:ext cx="4937460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="11934826"/>
+          <a:ext cx="428625" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="13515976"/>
+          <a:ext cx="428625" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="14287501"/>
+          <a:ext cx="428625" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6907</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1628775" y="12715875"/>
+          <a:ext cx="3302557" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6172199" y="15201900"/>
+          <a:ext cx="1524003" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>3572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>167879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="14233922"/>
+          <a:ext cx="1371600" cy="1021557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IDevicePlugin.dll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>旧バージョン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>129779</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="14881622"/>
+          <a:ext cx="1371600" cy="1021557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IDevicePlugin.dll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新バージョン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>118301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>53150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="15720251"/>
+          <a:ext cx="0" cy="4563999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="12896851"/>
+          <a:ext cx="428625" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="15059026"/>
+          <a:ext cx="428625" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="14801851"/>
+          <a:ext cx="428625" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>165926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>100775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="15596426"/>
+          <a:ext cx="0" cy="4563999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="20431125"/>
+          <a:ext cx="2714626" cy="11287126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CATASimulator.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="基底_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="20764501"/>
+          <a:ext cx="2047876" cy="2419349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="29651327"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本クラス独自実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="21212176"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool CheckHealth()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="23336251"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool CheckHealthInit()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>独自実装扱い</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="27460575"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int GetStatusCode()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>独自実装扱い</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="25412700"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bool IsInitCheckHealth()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>独自実装扱い</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -6351,7 +10801,7 @@
         <xdr:cNvPr id="8" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6442,7 +10892,7 @@
         <xdr:cNvPr id="2" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6528,7 +10978,7 @@
         <xdr:cNvPr id="40" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA06462-A163-47B0-9873-0F5FB2596733}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6621,7 +11071,7 @@
         <xdr:cNvPr id="41" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D28B127-0CF0-4283-BC30-9BF8C87C67A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6714,7 +11164,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6770,7 +11220,7 @@
         <xdr:cNvPr id="28" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FF9712-50EF-4BDF-B8FE-234B292C3A1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6858,7 +11308,7 @@
         <xdr:cNvPr id="29" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C8A922-525B-460A-843E-BEF4F9AEC891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6965,7 +11415,7 @@
         <xdr:cNvPr id="30" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9451C03F-4001-4909-A0F0-A0F130AE55BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7072,7 +11522,7 @@
         <xdr:cNvPr id="31" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2A29F8-7889-45E5-9A28-3E9D453C76A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7178,7 +11628,7 @@
         <xdr:cNvPr id="32" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E72841-0F11-4B24-A511-DE5781F6C86E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7269,7 +11719,7 @@
         <xdr:cNvPr id="33" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AF6E7A-8322-4319-8031-4305EB9FB447}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7357,7 +11807,7 @@
         <xdr:cNvPr id="38" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3F1853-ED54-4108-BFA7-4907D6BCE598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7484,7 +11934,7 @@
         <xdr:cNvPr id="39" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1936C7DE-8FC2-487E-816E-835BD310ABD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7606,7 +12056,7 @@
         <xdr:cNvPr id="44" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4673A11-7224-43A6-B004-74B8293AC2E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7697,7 +12147,7 @@
         <xdr:cNvPr id="45" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FF1290-E1AC-4D5B-968A-4E13B220D7A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7785,7 +12235,7 @@
         <xdr:cNvPr id="46" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B2ED7E-20A9-4D6E-9E62-D50943E8B01F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7892,7 +12342,7 @@
         <xdr:cNvPr id="47" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54E33C2-6C9E-4A2D-9605-99EF3FCBEB0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7999,7 +12449,7 @@
         <xdr:cNvPr id="48" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9932EBF-BFC6-48A0-8B43-717E2FD3E2A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8105,7 +12555,7 @@
         <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE656E5-6D0D-4195-8767-13F40A50F265}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8161,7 +12611,7 @@
         <xdr:cNvPr id="56" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F601A6E-A008-4AFB-B414-0154D317E23D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8275,7 +12725,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3F2F5A-1984-4320-BD0D-1357D03A8232}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8331,7 +12781,7 @@
         <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9ECCCF-3ED3-4B64-A931-9B050AE98097}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8387,7 +12837,7 @@
         <xdr:cNvPr id="60" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313B3FDA-ABEB-4B0F-BDE4-16ED328D84DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8475,7 +12925,7 @@
         <xdr:cNvPr id="61" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D87FAF-4FD9-4A38-9441-62E50B8DAF1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8602,7 +13052,7 @@
         <xdr:cNvPr id="62" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204845DD-EF01-4A23-8A12-EE4859C335C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8724,7 +13174,7 @@
         <xdr:cNvPr id="63" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DEB5A2-5C86-4722-BA0E-1FF2B6457B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8838,7 +13288,7 @@
         <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64ADC76-4284-4AA8-87F0-E238099CF118}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8894,7 +13344,7 @@
         <xdr:cNvPr id="65" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9BE52C-64F1-45EA-BDB1-D4FDF76955F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9109,7 +13559,7 @@
         <xdr:cNvPr id="67" name="直線コネクタ 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDF52E5-F417-4084-A2FF-97D32E5A16B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9164,7 +13614,7 @@
         <xdr:cNvPr id="68" name="直線コネクタ 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40E2119-D739-4A50-8D3E-7C4F05FEBF77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9219,7 +13669,7 @@
         <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3700D0F0-DFA0-437D-8E2F-FC92849C0018}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9260,7 +13710,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9280,7 +13730,7 @@
         <xdr:cNvPr id="2" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6919460B-EDA2-40C9-A5B5-AF75C4FFBB44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9371,7 +13821,7 @@
         <xdr:cNvPr id="3" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1FEFBE-142F-4B30-9C3E-FF5982393BBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9457,7 +13907,7 @@
         <xdr:cNvPr id="4" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24A2844-6F62-4FD7-A6C3-702F367A5F73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9550,7 +14000,7 @@
         <xdr:cNvPr id="5" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4196AC-0BD5-4A2B-A99B-9AA2001E9900}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9643,7 +14093,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC04BBF3-42A9-41F8-B82D-B62A877F6957}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9699,7 +14149,7 @@
         <xdr:cNvPr id="7" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C0CA68-D8EF-4028-97AD-A25312A7E3A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9787,7 +14237,7 @@
         <xdr:cNvPr id="8" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7213A765-06A7-4499-940D-CAA446B6C3E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9894,7 +14344,7 @@
         <xdr:cNvPr id="9" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6FC38E-A459-462D-B2A2-6A87B7C8ECB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10001,7 +14451,7 @@
         <xdr:cNvPr id="10" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADFF968-9928-457C-BB22-673A52A1CF48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10107,7 +14557,7 @@
         <xdr:cNvPr id="11" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AB7D8E-F156-4A66-8047-2189835D0123}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10198,7 +14648,7 @@
         <xdr:cNvPr id="12" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C96F71-23DE-49DC-AAC9-A4DE1FB463A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10286,7 +14736,7 @@
         <xdr:cNvPr id="13" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEA5A12-4364-43EE-B61D-1B894D0F3AAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10413,7 +14863,7 @@
         <xdr:cNvPr id="14" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8EA271-E20F-460D-B36C-7B60A30891F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10535,7 +14985,7 @@
         <xdr:cNvPr id="15" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E92167-60DB-4290-B431-C0F91833CE9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10626,7 +15076,7 @@
         <xdr:cNvPr id="17" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A6B6D6-AB97-46CA-BF5C-44AE4D33F0CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10713,7 +15163,7 @@
         <xdr:cNvPr id="21" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6AD0AE-6A54-4BDA-AF84-8B4136572A14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10827,7 +15277,7 @@
         <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45552B5B-CE6E-4D8C-B644-69473E05BBC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10883,7 +15333,7 @@
         <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B9805B-C0B4-48B4-83A9-128EF23F7247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10939,7 +15389,7 @@
         <xdr:cNvPr id="24" name="基底_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4565B85A-5D85-424B-9A77-D718E90C413E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11035,7 +15485,7 @@
         <xdr:cNvPr id="25" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DA7221-46D2-4E43-B5CA-E205F908ADB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11141,7 +15591,7 @@
         <xdr:cNvPr id="26" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9EC816-4727-446A-AA8F-BFFC59AD9C0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11247,7 +15697,7 @@
         <xdr:cNvPr id="27" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BD51BE-9BF7-4326-AB45-8468EE5225C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11345,7 +15795,7 @@
         <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0D768A-DE93-4550-A778-7C6F5535CD2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11401,7 +15851,7 @@
         <xdr:cNvPr id="29" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077FF42D-2664-42AB-B73F-00094A14758E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11771,7 +16221,7 @@
         <xdr:cNvPr id="30" name="直線コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C877A213-2FFE-4F6C-B7FD-68DE1F687F0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11826,7 +16276,7 @@
         <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9149606D-AB8E-444E-AD27-5FF6EFB967E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11882,7 +16332,7 @@
         <xdr:cNvPr id="34" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB02B19-6105-4B42-9D0B-611AD93CCC62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11993,7 +16443,7 @@
         <xdr:cNvPr id="35" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399C597-BF43-4A8D-82A1-911D087276BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12099,7 +16549,7 @@
         <xdr:cNvPr id="36" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079D1FDF-5C5E-4287-B776-8F67812D9105}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12191,7 +16641,7 @@
         <xdr:cNvPr id="37" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7079B59-7C10-4DD9-8A4C-4AA4B4483704}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12273,7 +16723,7 @@
         <xdr:cNvPr id="39" name="派生01_正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8F01B3-02F3-4C59-AF9E-5DB3B11AF1FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12808,6 +17258,170 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1033D5AA-3050-45B7-B4C0-38ADBC967A8D}">
+  <dimension ref="A1:T98"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="12" max="12" width="9" style="3"/>
+    <col min="18" max="18" width="1.625" style="3" customWidth="1"/>
+    <col min="19" max="20" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>差分ビルド注意</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="R73" s="7"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="G74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R78" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="D79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R81" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="N86" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" s="7"/>
+      <c r="R97" s="7"/>
+    </row>
+    <row r="98" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="8"/>
+      <c r="G98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="R98" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
@@ -12874,7 +17488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E47440-45B7-4963-9BEF-411E4E26B4F9}">
   <dimension ref="A1:L52"/>
   <sheetViews>

--- a/C#/Function/Pulgin/概念図.xlsx
+++ b/C#/Function/Pulgin/概念図.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195D6FC3-4FF8-4BE0-BC03-866D7E51C026}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189EA4A1-08B9-461C-8D8F-C2ACD84ECC58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="インターフェイス" sheetId="50" r:id="rId1"/>
+    <sheet name="Interface" sheetId="50" r:id="rId1"/>
     <sheet name="プラグイン" sheetId="51" r:id="rId2"/>
     <sheet name="差分ビルド注意" sheetId="48" r:id="rId3"/>
     <sheet name="差分ビルド注意_参照エラー" sheetId="49" r:id="rId4"/>
@@ -114,39 +114,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・IFクラスを継承しているクラスはIFクラス型に</t>
-    <rPh sb="7" eb="9">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インスタンスを格納するとIFクラスに定義されている</t>
-    <rPh sb="7" eb="9">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メンバのみにアクセス可能となる</t>
     <rPh sb="10" eb="12">
       <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・IFクラスを継承したクラスはIFクラスに定義されている</t>
-    <rPh sb="7" eb="9">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -180,22 +150,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・実装クラスと呼び出しクラスで同一のインターフェイスを</t>
-    <rPh sb="1" eb="3">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ドウイツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -256,38 +210,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・インターフェイスに変更がある変更セットを含むビルドの</t>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ビルドされた内容</t>
     <rPh sb="6" eb="8">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>差分はIFファイルのビルド順に注意が必要</t>
-    <rPh sb="0" eb="2">
-      <t>サブン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,10 +395,6 @@
     <t>※メンバは全て公開設定となる</t>
   </si>
   <si>
-    <t>IFクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通常クラス</t>
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
@@ -488,6 +409,84 @@
     <t>ソース内容</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Interfaceクラスを継承したクラスはInterfaceクラスに定義されている</t>
+    <rPh sb="14" eb="16">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interfaceクラス</t>
+  </si>
+  <si>
+    <t>・Interfaceクラスを継承しているクラスはInterfaceクラス型に</t>
+    <rPh sb="14" eb="16">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスを格納するとInterfaceクラスに定義されている</t>
+    <rPh sb="7" eb="9">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実装クラスと呼び出しクラスで同一のInterfaceクラスを</t>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Interfaceクラスに変更がある変更セットを含むビルドの</t>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分はInterfaceファイルのビルド順に注意が必要</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1111,7 +1110,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -1217,7 +1216,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -1663,7 +1662,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IF</a:t>
+            <a:t>Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -2099,7 +2098,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -2205,7 +2204,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -2399,7 +2398,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IF</a:t>
+            <a:t>Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -2919,7 +2918,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IF</a:t>
+            <a:t>Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -3447,7 +3446,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -3558,7 +3557,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -4373,7 +4372,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IF</a:t>
+            <a:t>Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -4479,7 +4478,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -4585,7 +4584,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -4779,7 +4778,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IF</a:t>
+            <a:t>Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -5004,7 +5003,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8905875" y="1400174"/>
+          <a:off x="8343900" y="1409699"/>
           <a:ext cx="1371600" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5056,7 +5055,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IF</a:t>
+            <a:t>Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -5637,7 +5636,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IF</a:t>
+            <a:t>Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -5743,7 +5742,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -5849,7 +5848,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -5965,190 +5964,6 @@
             </a:rPr>
             <a:t>本クラス独自実装</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="派生01_正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B00D94-6920-4E25-BAEF-888FF0530E23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="1714499"/>
-          <a:ext cx="2714626" cy="7372351"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-            <a:alpha val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>実装クラス</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>01.dll</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="派生01_正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C330863-848C-4299-8A82-01CB1FD00220}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="9429750"/>
-          <a:ext cx="2714626" cy="7372351"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-            <a:alpha val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>実装クラス</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>02.dll</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6598,62 +6413,6 @@
         <a:xfrm flipV="1">
           <a:off x="3352800" y="1762125"/>
           <a:ext cx="5524500" cy="7743826"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A7E912-EACC-470A-A42A-BA380D711268}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3152775" y="3276601"/>
-          <a:ext cx="1676401" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7045,6 +6804,246 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B00D94-6920-4E25-BAEF-888FF0530E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1714499"/>
+          <a:ext cx="2714626" cy="7372351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01.dll</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A7E912-EACC-470A-A42A-BA380D711268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3152775" y="3276601"/>
+          <a:ext cx="1676401" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="派生01_正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C330863-848C-4299-8A82-01CB1FD00220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9429750"/>
+          <a:ext cx="2714626" cy="7372351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実装クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02.dll</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11999,15 +11998,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>クラス</a:t>
+            <a:t>ICAT.cs</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13657,15 +13648,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>クラス</a:t>
+            <a:t>ICAT.cs</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14039,7 +14022,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -14252,7 +14235,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※IF</a:t>
+            <a:t>※Interface</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -22382,36 +22365,36 @@
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>インターフェイス</v>
+        <v>Interface</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:12" s="15" customFormat="1">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G5" s="16"/>
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -22423,29 +22406,29 @@
     <row r="65" spans="1:12" s="15" customFormat="1">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G65" s="16"/>
       <c r="L65" s="16"/>
     </row>
     <row r="66" spans="1:12">
       <c r="B66" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="B67" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="B69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -22492,24 +22475,24 @@
     </row>
     <row r="2" spans="1:12">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:12" s="15" customFormat="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" s="16"/>
       <c r="L6" s="16"/>
@@ -22570,19 +22553,19 @@
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:18" s="15" customFormat="1">
       <c r="A5" s="17"/>
       <c r="B5" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G5" s="16"/>
       <c r="L5" s="16"/>
@@ -22597,7 +22580,7 @@
     <row r="52" spans="1:18" s="6" customFormat="1" hidden="1">
       <c r="A52" s="5"/>
       <c r="B52" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G52" s="7"/>
       <c r="L52" s="7"/>
@@ -22605,7 +22588,7 @@
     </row>
     <row r="53" spans="1:18" hidden="1">
       <c r="G53" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:18" hidden="1"/>
@@ -22617,10 +22600,10 @@
     <row r="60" spans="1:18" hidden="1"/>
     <row r="61" spans="1:18" hidden="1">
       <c r="B61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:18" hidden="1"/>
@@ -22639,7 +22622,7 @@
     <row r="70" spans="1:21" s="4" customFormat="1">
       <c r="A70" s="8"/>
       <c r="B70" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G70" s="3"/>
       <c r="L70" s="3"/>
@@ -22647,63 +22630,63 @@
     </row>
     <row r="71" spans="1:21">
       <c r="G71" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S71" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="T72" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:21">
       <c r="S73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="T74" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="S75" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:21">
       <c r="D76" s="9"/>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T76" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:21">
       <c r="U77" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="D78" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S78" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:21">
       <c r="B79" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S79" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -22711,17 +22694,17 @@
         <v>3</v>
       </c>
       <c r="S80" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="N81" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="J82" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -22730,10 +22713,10 @@
     <row r="94" spans="1:18" s="6" customFormat="1">
       <c r="A94" s="5"/>
       <c r="B94" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L94" s="7"/>
       <c r="R94" s="7"/>
@@ -22776,19 +22759,19 @@
     </row>
     <row r="2" spans="1:20">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:20" s="15" customFormat="1">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G5" s="16"/>
       <c r="L5" s="16"/>
@@ -22796,17 +22779,17 @@
     </row>
     <row r="6" spans="1:20">
       <c r="S6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="T7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="6:12">
@@ -22819,12 +22802,12 @@
     </row>
     <row r="21" spans="6:12">
       <c r="F21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:18" s="6" customFormat="1">
       <c r="B41" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G41" s="7"/>
       <c r="L41" s="7"/>
@@ -22835,7 +22818,7 @@
     </row>
     <row r="50" spans="1:18" s="6" customFormat="1">
       <c r="B50" s="18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G50" s="7"/>
       <c r="L50" s="7"/>
@@ -22856,7 +22839,7 @@
     <row r="61" spans="1:18" s="15" customFormat="1">
       <c r="A61" s="17"/>
       <c r="B61" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G61" s="16"/>
       <c r="L61" s="16"/>
@@ -22874,12 +22857,12 @@
     </row>
     <row r="68" spans="6:6">
       <c r="F68" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="2:18" s="6" customFormat="1">
       <c r="B107" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G107" s="7"/>
       <c r="L107" s="7"/>
@@ -22892,7 +22875,7 @@
     <row r="116" spans="1:18" s="15" customFormat="1">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G116" s="16"/>
       <c r="L116" s="16"/>
@@ -22910,7 +22893,7 @@
     </row>
     <row r="123" spans="1:18">
       <c r="F123" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:18" s="6" customFormat="1">
